--- a/BalanceSheet/DOCU_bal.xlsx
+++ b/BalanceSheet/DOCU_bal.xlsx
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>8473000.0</v>
+        <v>37000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-2620000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>8829000.0</v>
+        <v>33000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-2554000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1543000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>29099000.0</v>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-1360000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-766000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-180000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-104000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1245000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>4275000.0</v>
